--- a/biology/Botanique/Eustrephus_latifolius/Eustrephus_latifolius.xlsx
+++ b/biology/Botanique/Eustrephus_latifolius/Eustrephus_latifolius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eustrephus latifolius est une espèce de plante grimpante vivace à feuillage persistant de la famille des Laxmanniaceae. Elle est monotypique dans son genre.
 Elle est originaire de Malaisie, des îles du Pacifique et de l'est de l'Australie. On la trouve dans la forêt sclérophylle, les forêts galeries et en bordure de la forêt tropicale.
